--- a/useful references/Truth Tables.xlsx
+++ b/useful references/Truth Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Specifications\ATE Test Equipment\Harrison Warke\Verilog_HDLBits\useful references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D522AD7E-40D6-4510-8092-8A34E967DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D51A17-5E3A-4D9E-83F1-27A3F68A5DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6E68D699-07EB-434C-954D-7802132954A2}"/>
+    <workbookView xWindow="13800" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{6E68D699-07EB-434C-954D-7802132954A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Truth Tables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Output</t>
   </si>
@@ -81,13 +81,17 @@
   </si>
   <si>
     <t>NOR</t>
+  </si>
+  <si>
+    <t>Output is high if, and only if, an
+ODD number of inputs is high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +100,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -355,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,41 +410,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,58 +785,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF947BF-00F0-4700-AF76-4BD8A666DD52}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:R12"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="17"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="31"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="13"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="13"/>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="12"/>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="25"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -828,7 +845,7 @@
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -849,16 +866,16 @@
       <c r="L4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="23" t="s">
+      <c r="O4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="10" t="s">
@@ -899,13 +916,13 @@
       <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="18">
         <v>0</v>
       </c>
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -943,13 +960,13 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="18">
         <v>1</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -987,13 +1004,13 @@
       <c r="O7" s="6">
         <v>1</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="18">
         <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1031,91 +1048,84 @@
       <c r="O8" s="6">
         <v>1</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="18">
         <v>1</v>
       </c>
       <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
       <c r="N9" s="5">
         <v>1</v>
       </c>
       <c r="O9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="18">
         <v>0</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="N10" s="5">
         <v>1</v>
       </c>
       <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="18">
         <v>1</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
-      <c r="R10" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="N11" s="5">
         <v>1</v>
       </c>
       <c r="O11" s="6">
         <v>1</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="18">
         <v>0</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
-      <c r="J12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
       <c r="N12" s="2">
         <v>1</v>
       </c>
@@ -1134,171 +1144,191 @@
     </row>
     <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="F14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="G16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
+      <c r="K16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
+      <c r="D17" s="8">
+        <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="8">
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
